--- a/src/static/files/doanhSo_template.xlsx
+++ b/src/static/files/doanhSo_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\development\py\DJ_Project\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\development\py\DJ_Project\src\static\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31625205-566A-43D3-BE3D-2DEAAD416428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10F2154-066E-4064-83B8-87F7F7BC4BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>maKH</t>
   </si>
@@ -40,6 +40,18 @@
   </si>
   <si>
     <t>AG003</t>
+  </si>
+  <si>
+    <t>ghi_chu</t>
+  </si>
+  <si>
+    <t>quyet toan uu dai</t>
+  </si>
+  <si>
+    <t>cap nhat thang cu</t>
+  </si>
+  <si>
+    <t>hoan tien</t>
   </si>
 </sst>
 </file>
@@ -357,47 +369,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <v>-800000</v>
       </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
         <v>1200000</v>
       </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
         <v>700000</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
